--- a/docs/web_server_vulnerabilities.xlsx
+++ b/docs/web_server_vulnerabilities.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mrvasil/Desktop/Alexey/Projects/CONFident_tool/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A586239-8922-194A-853F-DE40F8141158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FCD394-2AAA-8143-92A3-C0492BD21E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="900" windowWidth="29080" windowHeight="16880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="29400" windowHeight="18400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vulnerabilities" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="79">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Тип уязвимости</t>
+  </si>
+  <si>
+    <t>Описание</t>
+  </si>
+  <si>
+    <t>Веб-сервер</t>
+  </si>
+  <si>
+    <t>Рекомендация</t>
+  </si>
+  <si>
+    <t>Пример</t>
+  </si>
   <si>
     <t>Directory Listing</t>
   </si>
@@ -55,6 +73,27 @@
     <t>CORS Misconfiguration</t>
   </si>
   <si>
+    <t>HTTP Splitting</t>
+  </si>
+  <si>
+    <t>Origin/Referer Validation Issues</t>
+  </si>
+  <si>
+    <t>Add Header Redefinition</t>
+  </si>
+  <si>
+    <t>Host Header Spoofing</t>
+  </si>
+  <si>
+    <t>Valid Referers None</t>
+  </si>
+  <si>
+    <t>Multiline Response Headers</t>
+  </si>
+  <si>
+    <t>Alias Path Traversal</t>
+  </si>
+  <si>
     <t>Включенный листинг директорий позволяет просматривать содержимое папок сервера</t>
   </si>
   <si>
@@ -67,6 +106,9 @@
     <t>Возможность доступа к файлам за пределами корневой директории веб-сервера</t>
   </si>
   <si>
+    <t>Отсутствие ограничений на размер запросов может привести к DoS атакам</t>
+  </si>
+  <si>
     <t>Server-Side Request Forgery - возможность выполнения запросов от имени сервера</t>
   </si>
   <si>
@@ -85,12 +127,36 @@
     <t>Неправильная настройка Cross-Origin Resource Sharing</t>
   </si>
   <si>
+    <t>Возможность внедрения дополнительных HTTP заголовков через манипуляции с разделителями строк</t>
+  </si>
+  <si>
+    <t>Недостаточная валидация заголовков Origin/Referer может привести к CSRF атакам</t>
+  </si>
+  <si>
+    <t>Переопределение заголовков ответа директивой add_header может привести к удалению важных защитных заголовков</t>
+  </si>
+  <si>
+    <t>Подделка заголовка Host в запросе может привести к обходу защиты и атакам</t>
+  </si>
+  <si>
+    <t>Использование none в valid_referers позволяет обойти защиту от подделки реферера</t>
+  </si>
+  <si>
+    <t>Многострочные заголовки ответа могут использоваться для инъекций и обхода защиты</t>
+  </si>
+  <si>
+    <t>Некорректная настройка директивы alias может привести к обходу ограничений доступа к файлам</t>
+  </si>
+  <si>
     <t>Nginx, Apache</t>
   </si>
   <si>
     <t>Apache</t>
   </si>
   <si>
+    <t>Nginx</t>
+  </si>
+  <si>
     <t>Отключить autoindex в Nginx или Options -Indexes в Apache</t>
   </si>
   <si>
@@ -100,6 +166,9 @@
     <t>Ограничить выполнение CGI скриптов, использовать suEXEC, установить корректные права доступа</t>
   </si>
   <si>
+    <t>Настроить корректные alias и root директивы, включить символические ссылки только где необходимо</t>
+  </si>
+  <si>
     <t>Установить лимиты client_max_body_size, LimitRequestBody и другие ограничения</t>
   </si>
   <si>
@@ -119,6 +188,27 @@
   </si>
   <si>
     <t>Настроить корректные CORS заголовки с явным указанием разрешенных источников</t>
+  </si>
+  <si>
+    <t>Использовать валидацию и санитизацию входных данных, особенно заголовков</t>
+  </si>
+  <si>
+    <t>Реализовать строгую проверку Origin/Referer с учетом всех доверенных источников</t>
+  </si>
+  <si>
+    <t>Использовать директиву add_header только в основном контексте http или server</t>
+  </si>
+  <si>
+    <t>Настроить валидацию заголовка Host и использовать server_name для определения виртуальных хостов</t>
+  </si>
+  <si>
+    <t>Избегать использования none в valid_referers, явно указывать разрешенные источники</t>
+  </si>
+  <si>
+    <t>Обеспечить корректную обработку и валидацию многострочных заголовков</t>
+  </si>
+  <si>
+    <t>Тщательно проверять конфигурацию alias и использовать root где возможно</t>
   </si>
   <si>
     <t>autoindex off; # Nginx
@@ -163,28 +253,21 @@
     <t>add_header Access-Control-Allow-Origin https://trusted-site.com;</t>
   </si>
   <si>
-    <t>Описание</t>
-  </si>
-  <si>
-    <t>Веб-сервер</t>
-  </si>
-  <si>
-    <t>Рекомендация</t>
-  </si>
-  <si>
-    <t>Пример</t>
-  </si>
-  <si>
-    <t>Тип уязвимости</t>
-  </si>
-  <si>
-    <t>№</t>
-  </si>
-  <si>
-    <t>Настроить корректные alias и root директивы, включить символические ссылки только там, где это необходимо</t>
-  </si>
-  <si>
-    <t>Отсутствие ограничений на размер запросов может привести к DoS-атакам</t>
+    <t>if ($http_origin ~ "^https?://([^/]+\.)?example\.com$") { set $origin_valid 1; }</t>
+  </si>
+  <si>
+    <t>add_header X-Frame-Options DENY always;
+add_header X-XSS-Protection "1; mode=block" always;</t>
+  </si>
+  <si>
+    <t>server_name example.com;
+if ($host != $server_name) { return 444; }</t>
+  </si>
+  <si>
+    <t>valid_referers server_names *.example.com example.* www.example.org/;</t>
+  </si>
+  <si>
+    <t>location /files { alias /path/to/files/; }</t>
   </si>
 </sst>
 </file>
@@ -217,7 +300,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFD7E4BC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,25 +332,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,15 +644,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="5.6640625" customWidth="1"/>
     <col min="2" max="2" width="25.6640625" customWidth="1"/>
     <col min="3" max="3" width="50.6640625" customWidth="1"/>
     <col min="4" max="4" width="15.6640625" customWidth="1"/>
@@ -589,253 +660,384 @@
     <col min="6" max="6" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-    </row>
-    <row r="2" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="64" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="B10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="B11" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" ht="32" x14ac:dyDescent="0.2">
+      <c r="E11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="C16" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>43</v>
+      <c r="C17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
